--- a/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
+++ b/2023/bosnia-and-herzegovina_premijer-liga-bih_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4505,6 +4505,190 @@
         </is>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45196.625</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tuzla City</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Zrinjski</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>04/08/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>27/09/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>04/08/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>27/09/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>04/08/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>27/09/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/tuzla-city-zrinjski/QTjlSnln/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>bosnia-and-herzegovina</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>premijer-liga-bih</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45196.77083333334</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Siroki Brijeg</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Borac Banja Luka</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:16</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:16</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>26/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>27/09/2023 18:16</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/bosnia-and-herzegovina/premijer-liga-bih/siroki-brijeg-borac-banja-luka/6Nzl3FYa/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
